--- a/biology/Botanique/Ipomoea_tiliacea/Ipomoea_tiliacea.xlsx
+++ b/biology/Botanique/Ipomoea_tiliacea/Ipomoea_tiliacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ipomoea tiliacea est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire du  continent américain. C'est l'une des 13 espèces sauvages classées dans la série Batatas (Ipomoea subg. Eriospermum sect. Eriospermum)[2]. Cette espèce tétraploïde (2n=4x=60) est un parent sauvage de la patate douce (Ipomoea batatas).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipomoea tiliacea est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire du  continent américain. C'est l'une des 13 espèces sauvages classées dans la série Batatas (Ipomoea subg. Eriospermum sect. Eriospermum). Cette espèce tétraploïde (2n=4x=60) est un parent sauvage de la patate douce (Ipomoea batatas).
 </t>
         </is>
       </c>
@@ -513,13 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (1 octobre 2019)[1] : 
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (1 octobre 2019) : 
 Convolvulus fastigatus Roxb.
 Convolvulus tiliaceus Willd.
-Ipomoea fastigiata (Roxb.) Sweet
-Liste des variétés
-Selon Catalogue of Life                                   (1 octobre 2019)[3] :
+Ipomoea fastigiata (Roxb.) Sweet</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ipomoea_tiliacea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ipomoea_tiliacea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (1 octobre 2019) :
 Ipomoea tiliacea var. merremioides
 Ipomoea tiliacea var. smithii</t>
         </is>
